--- a/bean-mapper-test/docs/jdk8-04/PerformanceTestWithCompleteFixtures.xlsx
+++ b/bean-mapper-test/docs/jdk8-04/PerformanceTestWithCompleteFixtures.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
-    <t>07.04.2017 um 22:34 Uhr</t>
+    <t>03.04.2017 um 22:25 Uhr</t>
   </si>
   <si>
     <t>Name des Messpunkts</t>
@@ -167,22 +167,22 @@
         <v>10.0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F3" t="n" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G3" t="n" s="2">
+        <v>0.707107</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.0</v>
-      </c>
-      <c r="F3" t="n" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G3" t="n" s="2">
-        <v>0.483046</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -193,22 +193,22 @@
         <v>10.0</v>
       </c>
       <c r="C4" t="n">
-        <v>742.0</v>
+        <v>726.0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="E4" t="n">
-        <v>288.0</v>
+        <v>284.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>74.2</v>
+        <v>72.6</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>76.1997</v>
+        <v>75.7675</v>
       </c>
       <c r="H4" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="5">
@@ -222,16 +222,16 @@
         <v>154.0</v>
       </c>
       <c r="D5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="n">
-        <v>121.0</v>
+        <v>117.0</v>
       </c>
       <c r="F5" t="n" s="2">
         <v>15.4</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>37.119</v>
+        <v>35.7218</v>
       </c>
       <c r="H5" t="n">
         <v>3.0</v>
@@ -245,19 +245,19 @@
         <v>10.0</v>
       </c>
       <c r="C6" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>1.44914</v>
+        <v>1.1595</v>
       </c>
       <c r="H6" t="n">
         <v>1.0</v>
@@ -271,22 +271,22 @@
         <v>10.0</v>
       </c>
       <c r="C7" t="n">
-        <v>911.0</v>
+        <v>871.0</v>
       </c>
       <c r="D7" t="n">
-        <v>38.0</v>
+        <v>20.0</v>
       </c>
       <c r="E7" t="n">
         <v>498.0</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>91.1</v>
+        <v>87.1</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>143.059</v>
+        <v>144.672</v>
       </c>
       <c r="H7" t="n">
-        <v>46.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="8">
@@ -297,19 +297,19 @@
         <v>10.0</v>
       </c>
       <c r="C8" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>0.483046</v>
+        <v>0.316228</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>
@@ -323,22 +323,22 @@
         <v>10.0</v>
       </c>
       <c r="C9" t="n">
-        <v>71.0</v>
+        <v>74.0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>3.44642</v>
+        <v>2.319</v>
       </c>
       <c r="H9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -393,22 +393,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>30733.0</v>
+        <v>29048.0</v>
       </c>
       <c r="C3" t="n">
-        <v>507.0</v>
+        <v>497.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>18.0</v>
+        <v>3.0</v>
       </c>
       <c r="F3" t="n" s="2">
-        <v>0.0164969</v>
+        <v>0.0171096</v>
       </c>
       <c r="G3" t="n" s="2">
-        <v>0.171949</v>
+        <v>0.134376</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -419,22 +419,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>30733.0</v>
+        <v>29048.0</v>
       </c>
       <c r="C4" t="n">
-        <v>339822.0</v>
+        <v>328701.0</v>
       </c>
       <c r="D4" t="n">
         <v>10.0</v>
       </c>
       <c r="E4" t="n">
-        <v>67.0</v>
+        <v>35.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>11.0572</v>
+        <v>11.3158</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>1.15002</v>
+        <v>1.24404</v>
       </c>
       <c r="H4" t="n">
         <v>11.0</v>
@@ -445,22 +445,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>30733.0</v>
+        <v>29048.0</v>
       </c>
       <c r="C5" t="n">
-        <v>16186.0</v>
+        <v>16155.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>0.526665</v>
+        <v>0.556148</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>0.544798</v>
+        <v>0.527171</v>
       </c>
       <c r="H5" t="n">
         <v>1.0</v>
@@ -471,22 +471,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>30733.0</v>
+        <v>29048.0</v>
       </c>
       <c r="C6" t="n">
-        <v>5290.0</v>
+        <v>5219.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>0.172128</v>
+        <v>0.179668</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>0.404221</v>
+        <v>0.39357</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -497,25 +497,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>30733.0</v>
+        <v>29048.0</v>
       </c>
       <c r="C7" t="n">
-        <v>191180.0</v>
+        <v>201316.0</v>
       </c>
       <c r="D7" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E7" t="n">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>6.22067</v>
+        <v>6.93046</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>0.892529</v>
+        <v>1.1136</v>
       </c>
       <c r="H7" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
@@ -523,22 +523,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>30733.0</v>
+        <v>29048.0</v>
       </c>
       <c r="C8" t="n">
-        <v>453.0</v>
+        <v>477.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>0.0147399</v>
+        <v>0.0164211</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>0.121319</v>
+        <v>0.128706</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -549,22 +549,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>30733.0</v>
+        <v>29048.0</v>
       </c>
       <c r="C9" t="n">
-        <v>23106.0</v>
+        <v>22546.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>0.75183</v>
+        <v>0.776164</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>0.481271</v>
+        <v>0.45459</v>
       </c>
       <c r="H9" t="n">
         <v>1.0</v>
@@ -589,31 +589,25 @@
       <c r="F12" t="n" s="1">
         <v>20000.0</v>
       </c>
-      <c r="G12" t="n" s="1">
-        <v>30000.0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="n" s="2">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="C13" t="n" s="2">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="E13" t="n" s="2">
-        <v>0.016</v>
+        <v>0.0181</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>0.01595</v>
-      </c>
-      <c r="G13" t="n" s="2">
-        <v>0.0164667</v>
+        <v>0.01735</v>
       </c>
     </row>
     <row r="14">
@@ -621,22 +615,19 @@
         <v>10</v>
       </c>
       <c r="B14" t="n" s="2">
-        <v>32.6</v>
+        <v>27.7</v>
       </c>
       <c r="C14" t="n" s="2">
-        <v>17.31</v>
+        <v>19.92</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>11.914</v>
+        <v>12.077</v>
       </c>
       <c r="E14" t="n" s="2">
-        <v>11.1028</v>
+        <v>11.3011</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>11.0608</v>
-      </c>
-      <c r="G14" t="n" s="2">
-        <v>11.0559</v>
+        <v>11.2659</v>
       </c>
     </row>
     <row r="15">
@@ -644,22 +635,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="n" s="2">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="C15" t="n" s="2">
-        <v>0.81</v>
+        <v>1.16</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>0.597</v>
+        <v>0.661</v>
       </c>
       <c r="E15" t="n" s="2">
-        <v>0.5307</v>
+        <v>0.561</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>0.5281</v>
-      </c>
-      <c r="G15" t="n" s="2">
-        <v>0.5272</v>
+        <v>0.55415</v>
       </c>
     </row>
     <row r="16">
@@ -667,22 +655,19 @@
         <v>12</v>
       </c>
       <c r="B16" t="n" s="2">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="C16" t="n" s="2">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>0.248</v>
+        <v>0.235</v>
       </c>
       <c r="E16" t="n" s="2">
-        <v>0.1858</v>
+        <v>0.189</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>0.173</v>
-      </c>
-      <c r="G16" t="n" s="2">
-        <v>0.1712</v>
+        <v>0.18085</v>
       </c>
     </row>
     <row r="17">
@@ -690,22 +675,19 @@
         <v>13</v>
       </c>
       <c r="B17" t="n" s="2">
-        <v>18.6</v>
+        <v>19.5</v>
       </c>
       <c r="C17" t="n" s="2">
-        <v>9.98</v>
+        <v>13.0</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>6.704</v>
+        <v>7.408</v>
       </c>
       <c r="E17" t="n" s="2">
-        <v>6.2375</v>
+        <v>6.8952</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>6.2227</v>
-      </c>
-      <c r="G17" t="n" s="2">
-        <v>6.22077</v>
+        <v>6.8927</v>
       </c>
     </row>
     <row r="18">
@@ -716,19 +698,16 @@
         <v>0.7</v>
       </c>
       <c r="C18" t="n" s="2">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>0.091</v>
+        <v>0.088</v>
       </c>
       <c r="E18" t="n" s="2">
-        <v>0.0212</v>
+        <v>0.0203</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>0.0165</v>
-      </c>
-      <c r="G18" t="n" s="2">
-        <v>0.0149333</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="19">
@@ -736,22 +715,19 @@
         <v>15</v>
       </c>
       <c r="B19" t="n" s="2">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="C19" t="n" s="2">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>0.793</v>
+        <v>0.816</v>
       </c>
       <c r="E19" t="n" s="2">
-        <v>0.7515</v>
+        <v>0.7719</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>0.74845</v>
-      </c>
-      <c r="G19" t="n" s="2">
-        <v>0.7511</v>
+        <v>0.7729</v>
       </c>
     </row>
   </sheetData>
